--- a/src/main/webapp/muban/daorumuban.xlsx
+++ b/src/main/webapp/muban/daorumuban.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoao\IdeaProjects\Ruanjiaosuo1\src\main\webapp\muban\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="96"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="96" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="覆盖导入模板（有IR_SID列）" sheetId="2" r:id="rId1"/>
-    <sheet name="新增导入模板（无IR_SID列，确保IR_HKEY唯一）" sheetId="1" r:id="rId2"/>
+    <sheet name="新增导入模板（无IR_SID列，确保IR_HKEY唯一）" sheetId="1" r:id="rId1"/>
+    <sheet name="覆盖导入模板（有IR_SID列）" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>IR_SID</t>
   </si>
@@ -213,12 +213,6 @@
     <t>公告概要：公告信息：采购项目名称仓山淮安实验小学开课室办公桌椅采购项目。</t>
   </si>
   <si>
-    <t>44CA44CA5YWs5ZGK5qaC6KaB77yaDQrjgIDjgIDlhazlkYrkv6Hmga/vvJoNCuOAgOOAgOmHh+i0remhueebruWQjeensOS7k+Wxsea3ruWuieWunumqjOWwj+WtpuW8gOivvuWupOWKnuWFrOahjOakhemHh+i0remhueebrg0K44CA44CA5ZOB55uuDQrjgIDjgIDotKfniakv5a625YW355So5YW3L+WPsOOAgeahjOexuy/lhbbku5blj7DjgIHmoYznsbsNCuOAgOOAgOmHh+i0reWNleS9jeemj+W3nuW4guS7k+Wxsea3ruWuieWunumqjOWwj+Wtpg0K44CA44CA6KGM5pS/5Yy65Z+f56aP5bu655yB5YWs5ZGK5pe26Ze0MjAxN+W5tDEy5pyIMTTml6UgIDE2OjQ5DQrjgIDjgIDmnKzpobnnm67mi5vmoIflhazlkYrml6XmnJ8yMDE35bm0MTLmnIgwNeaXpeaIkOS6pOaXpeacnzIwMTflubQxMuaciDE05pelDQrjgIDjgIDosIjliKTlsI/nu4TjgIHor6Lku7flsI/nu4TmiJDlkZjjgIHno4vllYblsI/nu4TmiJDlkZjlkI3ljZXlj4rljZXkuIDmnaXmupDph4fotK3kurrlkZjlkI3ljZXmoL7mmI7ovonjgIHpmYjngrPkuIHjgIHpmYjmmI7mmJ8NCuOAgOOAgOaAu+aIkOS6pOmHkemine+/pTkuMTYg5LiH5YWD77yI5Lq65rCR5biB77yJDQrjgIDjgIDogZTns7vkurrlj4rogZTns7vmlrnlvI/vvJoNCuOAgOOAgOmhueebruiBlOezu+S6uuadjuaFpw0K44CA44CA6aG555uu6IGU57O755S16K+dMDU5MS04NzU4MTcyMC84MzUzNzM4Nw0K44CA44CA6YeH6LSt5Y2V5L2N56aP5bee5biC5LuT5bGx5reu5a6J5a6e6aqM5bCP5a2mDQrjgIDjgIDph4fotK3ljZXkvY3lnLDlnYDku5PlsbHljLoNCuOAgOOAgOmHh+i0reWNleS9jeiBlOezu+aWueW8j+mZiOaYjuaYnzE4ODUwMTMwODExDQrjgIDjgIDku6PnkIbmnLrmnoTlkI3np7Dnpo/lu7rpkavnkZ7ovr7mi5vmoIfmnInpmZDlhazlj7gNCuOAgOOAgOS7o+eQhuacuuaehOWcsOWdgOemj+W7uuecgeemj+W3nuW4guilv+a0qui3rzUyOOWPtzE1I+alvOS4ieWxgjMwNeWupA0K44CA44CA5Luj55CG5py65p6E6IGU57O75pa55byP5p2O5oWnICAwNTkxLTg3NTgxNzIwLzgzNTM3Mzg3DQrjgIDjgIDpmYTku7bvvJoNCuOAgOOAgOmZhOS7tjFYUkRaQjIwMTctWTU05a6a56i/LmRvYw==</t>
-  </si>
-  <si>
-    <t>56aP5bu66ZGr55Ge6L6+5oub5qCH5pyJ6ZmQ5YWs5Y+45YWz5LqO5LuT5bGx5reu5a6J5a6e6aqM5bCP5a2m5byA6K++5a6k5Yqe5YWs5qGM5qSF6YeH6LSt6aG555uu5oiQ5Lqk5YWs5ZGKDQoNCuOAgOOAgOWFrOWRiuamguimge+8mg0K44CA44CA5YWs5ZGK5L+h5oGv77yaDQrjgIDjgIDph4fotK3pobnnm67lkI3np7Dku5PlsbHmt67lronlrp7pqozlsI/lrablvIDor77lrqTlip7lhazmoYzmpIXph4fotK3pobnnm64NCuOAgOOAgOWTgeebrg0K44CA44CA6LSn54mpL+WutuWFt+eUqOWFty/lj7DjgIHmoYznsbsv5YW25LuW5Y+w44CB5qGM57G7DQrjgIDjgIDph4fotK3ljZXkvY3npo/lt57luILku5PlsbHmt67lronlrp7pqozlsI/lraYNCuOAgOOAgOihjOaUv+WMuuWfn+emj+W7uuecgeWFrOWRiuaXtumXtDIwMTflubQxMuaciDE05pelICAxNjo0OQ0K44CA44CA5pys6aG555uu5oub5qCH5YWs5ZGK5pel5pyfMjAxN+W5tDEy5pyIMDXml6XmiJDkuqTml6XmnJ8yMDE35bm0MTLmnIgxNOaXpQ0K44CA44CA6LCI5Yik5bCP57uE44CB6K+i5Lu35bCP57uE5oiQ5ZGY44CB56OL5ZWG5bCP57uE5oiQ5ZGY5ZCN5Y2V5Y+K5Y2V5LiA5p2l5rqQ6YeH6LSt5Lq65ZGY5ZCN5Y2V5qC+5piO6L6J44CB6ZmI54Kz5LiB44CB6ZmI5piO5pifDQrjgIDjgIDmgLvmiJDkuqTph5Hpop3vv6U5LjE2IOS4h+WFg++8iOS6uuawkeW4ge+8iQ0K44CA44CA6IGU57O75Lq65Y+K6IGU57O75pa55byP77yaDQrjgIDjgIDpobnnm67ogZTns7vkurrmnY7mhacNCuOAgOOAgOmhueebruiBlOezu+eUteivnTA1OTEtODc1ODE3MjAvODM1MzczODcNCuOAgOOAgOmHh+i0reWNleS9jeemj+W3nuW4guS7k+Wxsea3ruWuieWunumqjOWwj+Wtpg0K44CA44CA6YeH6LSt5Y2V5L2N5Zyw5Z2A5LuT5bGx5Yy6DQrjgIDjgIDph4fotK3ljZXkvY3ogZTns7vmlrnlvI/pmYjmmI7mmJ8xODg1MDEzMDgxMQ0K44CA44CA5Luj55CG5py65p6E5ZCN56ew56aP5bu66ZGr55Ge6L6+5oub5qCH5pyJ6ZmQ5YWs5Y+4DQrjgIDjgIDku6PnkIbmnLrmnoTlnLDlnYDnpo/lu7rnnIHnpo/lt57luILopb/mtKrot681Mjjlj7cxNSPmpbzkuInlsYIzMDXlrqQNCuOAgOOAgOS7o+eQhuacuuaehOiBlOezu+aWueW8j+adjuaFpyAgMDU5MS04NzU4MTcyMC84MzUzNzM4Nw0K44CA44CA6ZmE5Lu277yaDQrjgIDjgIDpmYTku7YxWFJEWkIyMDE3LVk1NOWumueovy5kb2M=</t>
-  </si>
-  <si>
     <t>text/html</t>
   </si>
   <si>
@@ -252,12 +246,6 @@
     <t>衡阳福昌招标代理有限责任公司受衡南县花桥镇人民政府的委托，对衡南县花桥镇总官廉租房配套基础设施建设工程政府采购项目进行竞争性谈判采购，现采用发布公告方式，邀请符合资格条件的供应商提交证明材料参与资格审查，并参与竞争性谈判采购活动。</t>
   </si>
   <si>
-    <t>44CA44CAIOihoemYs+emj+aYjOaLm+agh+S7o+eQhuaciemZkOi0o+S7u+WFrOWPuCDlj5cg6KGh5Y2X5Y6/6Iqx5qGl6ZWH5Lq65rCR5pS/5bqcIOeahOWnlOaJmO+8jOWvuSDooaHljZfljr/oirHmoaXplYfmgLvlrpjlu4nnp5/miL/phY3lpZfln7rnoYDorr7mlr3lu7rorr7lt6XnqIvmlL/lupzph4fotK3pobnnm64g6L+b6KGM56ue5LqJ5oCn6LCI5Yik6YeH6LSt77yM546w6YeH55So5Y+R5biD5YWs5ZGK5pa55byP77yM6YKA6K+356ym5ZCI6LWEIOagvOadoeS7tueahOS+m+W6lOWVhiDmj5Ag5Lqk6K+B5piO5p2Q5paZIOWPguS4jui1hOagvCDlrqHmn6XvvIzlubblj4LkuI7nq57kuonmgKfosIjliKTph4fotK3mtLvliqjjgIIgDQrjgIDjgIDkuIDjgIHpobnnm67mpoLlhrUgDQrjgIDjgIAx44CB6YeH6LSt6aG555uu5ZCN56ew77yaIOihoeWNl+WOv+iKseahpemVh+aAu+WumOW7ieenn+aIv+mFjeWll+WfuuehgOiuvuaWveW7uuiuvuW3peeoi+aUv+W6nOmHh+i0remhueebriDvvJsgDQrjgIDjgIAy44CB6YeH6LSt6K6h5YiS57yW5Y+3IO+8miBITlgyMDE3LUIwIDg1IO+8myAgICAgICAgIOWnlOaJmOS7o+eQhue8luWPt++8miBIWUZDMjAxNy1CMDQ377ybIA0K44CA44CAM+OAgemHh+i0remhueebruagh+eahOOAgeaVsOmHj+WPiumihOeul++8miAgIA0K44CA44CANOOAgemHh+i0remhueebrueahOS4u+imgemcgOaxguWPiuiwiOWIpOWPr+iDveWunui0qOaAp+WPmOWKqOWGheWuue+8miANCuOAgOOAgOS6jOOAgeS+m+W6lOWVhui1hOi0qOimgeaxgu+8miANCuOAgOOAgDEuIOWfuuacrOi1hOagvOadoeS7tu+8miDnrKblkIjjgIrkuK3ljY7kurrmsJHlhbHlkozlm73mlL/lupzph4fotK3ms5XjgIvnrKzkuozljYHkuozmnaHop4TlrprnmoTkvpvlupTllYbmnaHku7Yg77ybIA0K44CA44CAMi4g54m55a6a6LWE5qC85p2h5Lu277yaIA0K44CA44CAMi4xIOaKleagh+S6uumhu+WFt+aciSDlu7rnrZEg5bel56iLIOaIluW4guaUv+W3peeoiyDmlr3lt6XmgLvmib/ljIUg5Y+BIOe6p++8iOWPiuS7peS4iu+8iei1hOi0qO+8jOWuieWFqOeUn+S6p+iuuOWPr+ivgeWkhOS6juacieaViOacnzvlubblnKjkurrlkZjjgIHorr7lpIfjgIHotYTph5HnrYnmlrnpnaLlhbflpIfnm7jlupTnmoTmlr3lt6Xog73lipvvvJsgDQrjgIDjgIAyLjIg5ouf5Lu76aG555uu6LSf6LSj5Lq65bqU5oyB5pyJ5L2P5oi/5ZKM5Z+O5Lmh5bu66K6+6YOo5qC45Y+R55qEIOW7uuetkSDlt6XnqIsg5oiW5biC5pS/5bel56iLIOS4k+S4mui0sOe6p+WPiuS7peS4iuW7uumAoOW4iOazqOWGjOivgeS5puW5tuWFt+aciULnsbvlronlhajnlJ/kuqfogIPmoLjlkIjmoLzor4HkuabvvIzkuJTml6DlnKjlu7rlt6XnqIsg44CCICAgICAgICAgDQrjgIDjgIDkuInjgIHkvpvlupTllYblupQg5o+QIOS6pOeahOivgeaYjuadkOaWmeWPiuivtOaYjiDvvJogDQrjgIDjgIAx44CB5o+Q5Lqk44CK6LWE5qC86K+B5piO5p2Q5paZ5om/6K+65Ye944CL5Y6f5Lu277yM5qC85byP6KeB6ZmE5Lu2MSANCuOAgOOAgDLjgIHms5Xkurrmj5DkuqTms5Xlrprku6PooajkurrotYTmoLzor4HmmI7kuablpI3ljbDku7bmiJbogIXms5Xlrprku6PooajkurrmjojmnYPlp5TmiZjkuabljp/ku7blubbpmYTms5Xlrprku6Pooajkurrouqvku73or4HmmI7lpI3ljbDku7bvvJvoh6rnhLbkurrmj5DkuqTouqvku73or4HmmI7lpI3ljbDku7bvvJvmoLzlvI/op4HpmYTku7Yy77ybIA0K44CA44CAM+OAgeazleS6uuaPkOS6pOS8geS4muazleS6uuiQpeS4muaJp+eFp+WJr+acrOS7peWPiue7hOe7h+acuuaehOS7o+eggeivgeWJr+acrOWOn+S7tu+8myANCuOAgOOAgDTjgIHkvp3ms5XnvLTnurPnqI7mlLblkoznpL7kvJrkv53pmanotLnnmoTor4HmmI7mnZDmlpnvvJrjgIrnqI7liqHnmbvorrDor4HjgIvlkozjgIrnpL7kvJrkv53pmannmbvorrDor4HjgIvnmoTlpI3ljbDku7bvvIzmiJbogIXov5HkuInkuKrmnIjkvp3ms5XnvLTnurPnqI7mlLblkoznpL7kvJrkv53pmanotLnnmoTor4HmmI7vvIjnurPnqI7lj4rnvLTotLnlh63or4HlpI3ljbDku7bvvInvvIzmiJbogIXlp5TmiZjku5bkurrnvLTnurPnmoTlp5TmiZjku6Plip7ljY/orq7lkozov5HkuInkuKrmnIjnmoTnvLTnurPor4HmmI7vvIjmlLbmja7lpI3ljbDku7bvvInvvIzmiJbogIXms5XlrprlvoHmlLbmnLrlhbPlh7rlhbfnmoTkvp3ms5XlhY3nvLTnqI7otLnnmoTor4HmmI7ljp/ku7bvvJvvvIjlt7HojrflvpfigJznu5/kuIDkv6HnlKjku6PnoIHigJ3nmoTigJzkuInor4HlkIjkuIDigJ3kvIHkuJrvvIzml6Dpobvlho3mj5Dkvpvnu4Tnu4fmnLrmnoTku6PnoIHlj4rnqI7liqHnmbvorrDor4HvvInvvJsgDQrjgIDjgIA144CBIOWPguWKoOaUv+W6nOmHh+i0rea0u+WKqOWJjTPlubTlhoXvvIzlnKjnu4/okKXmtLvliqjkuK3msqHmnInph43lpKfov53ms5XorrDlvZUg77yI5qC55o2u5oqV5qCH5Lq66JCl5Lia5omn54Wn5rOo5YaM5omA5Zyo5Zyw5qOA5a+f6YOo6ZeoIOaMieeFp+mrmOajgOS8mlsyMDE1XTPlj7fmlofku7boh6oyMDE35bm0MSAyIOaciOS7veS7peadpeWHuuWFt+eahOafpeivouivgeaYjuWOn+S7tuS4uuWHhiDvvIkg77ybIA0K44CA44CANuOAgeacrOmCgOivt+WFrOWRiuimgeaxgueahOeJueWumui1hOagvOadoeS7tuivgeaYjuadkOaWmeOAgiANCuOAgOOAgOWbm+OAgei1hOagvOWuoeafpeivgeaYjuadkOaWmeeahOmAkuS6pCANCuOAgOOAgDHjgIHmjInmnKzpgoDor7flhazlkYrnrKzkuInmnaHop4Tlrprmj5DkuqTnmoTor4HmmI7mnZDmlpnlj4ror7TmmI7lupToo4XorqLmiJDlhozvvIzkuIDlvI/kuKTku73vvIzlubbpobvliqDnm5bmipXmoIfljZXkvY3lhaznq6Dlr4blsIHvvJsgDQrjgIDjgIAy44CB6LWE5qC85a6h5p+l6K+B5piO5p2Q5paZ55qE6YCS5Lqk5oiq5q2i5pe26Ze0IOS4ujIwMTflubQxIDIg5pyIIDIwIOaXpTE35pe2MDDliIbvvIgg5YyX5Lqs5pe26Ze044CB6IqC5YGH5pel6Zmk5aSW77yJ44CB5Zyw54K55Li6IOihoemYs+W4guWNjuaWsOW8gOWPkeWMuumVv+S4sOWkp+mBkzI45Y+35rGH5pmv6Iqx5ZutMuagizLljZXlhYMyNzAy5a6kIOOAgumAvuacn+mAgei+vueahO+8jOS4jeS6iOWPl+eQhuOAgiANCuOAgOOAgOS6lOOAgeehruWumumCgOivt+S+m+W6lOWVhiANCuOAgOOAgCAgIOiwiOWIpOWwj+e7hOS7juespuWQiOebuOW6lOi1hOagvOadoeS7tueahOS+m+W6lOWVhuWQjeWNleS4reehruWumuS4jeWwkeS6juS4ieWutueahOS+m+W6lOWVhuWPguS4juernuS6ieaAp+iwiOWIpOmHh+i0rea0u+WKqOOAgiANCuOAgOOAgOWFreOAgSDogZTns7vmlrnlvI8gDQrjgIDjgIAg6YeH6LSt5Lq65ZCN56ew77yaIOihoeWNl+WOv+iKseahpemVh+S6uuawkeaUv+W6nCAgICAgICAgICAgICAgICAgICAgICAgICAgICANCuOAgOOAgCDlnLDlnYDvvJog6KGh5Y2X5Y6/6Iqx5qGl6ZWH6Iqx6IuR6KW/6LevICAgDQrjgIDjgIAg6IGU57O75Lq677yaIOiSi+atpuW5syAgICAgICAgICAgICAgICAgICDogZTns7sg55S16K+d77yaIDEzNzg3NzE5MTc4ICAgIA0K44CA44CAIOmHh+i0reS7o+eQhuacuuaehOWQjeensO+8muihoemYs+emj+aYjOaLm+agh+S7o+eQhuaciemZkOi0o+S7u+WFrOWPuCANCuOAgOOAgCDlnLDlnYDvvJrooaHpmLPluILljY7mlrDlvIDlj5HljLrplb/kuLDlpKfpgZMyOOWPt+axh+aZr+iKseWbreS6jOagi+S6jOWNleWFgzI3MDLlrqQgDQrjgIDjgIAg6IGU57O75Lq677yaIOWRqOS6muWGmyAgICAgICAgICAgICAgIOiBlOezuyDnlLXor53vvJogMDczNC0yODgwMjg3ICAgMTM4MDczNDcxMzMgDQrjgIDjgIAgICAgICDnm5HnnaPnrqHnkIbpg6jpl6jvvJrooaHljZfljr/mlL/lupzph4fotK3nrqHnkIblip7lhazlrqQgDQrjgIDjgIDogZTns7vkurrvvJrpmLPkuLvku7sgICAgICAgICAgICDogZTns7vnlLXor53vvJowNzM0LTg1NTA3ODAgICANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgOmZhOS7tjEgICAgIOi1hOagvOivgeaYjuadkOaWmeaJv+ivuuWHvSANCuOAgOOAgCANCuOAgOOAgOaIkeS7rO+8jCAgICAgICAgICAgICAgICAgICDvvIjkvpvlupTllYblkI3np7DvvInlt7LorqTnnJ/pmIXor7vjgIrkuK3ljY7kurrmsJHlhbHlkozlm73mlL/lupzph4fotK3ms5XjgIvlj4rjgIrnq57kuonmgKfosIjliKTpgoDor7flhazlkYrjgItbICAgICAgICAgICAgICAgICAgICAgICAgICDvvIjpobnnm67lkI3np7DvvInvvIzmlL/lupzph4fotK3nvJblj7fvvJogICAgICAgICAgICAgIO+8jOWnlOaJmOS7o+eQhue8luWPt++8miAgICAgICAgICAgICAgXeebuOWFs+WGheWuue+8jOefpeaCieS+m+W6lOWVhuWPguWKoOaUv+W6nOmHh+i0rea0u+WKqOW6lOW9k+WFt+Wkh+eahOadoeS7tuOAguatpOasoeaMieOAiuernuS6ieaAp+iwiOWIpOmCgOivt+WFrOWRiuOAi+imgeaxguaPkOS6pOeahOS+m+W6lOWVhui1hOagvOivgeaYjuadkOaWme+8jOW3sue7j+iupOecn+aguOWvueWSjOajgOafpe+8jOWFqOmDqOWGheWuueecn+WunuOAgeWQiOazleOAgeWHhuehruWSjOWujOaVtO+8jOaIkeS7rOWvueatpOi0n+i0o++8jOW5tuaEv+aJv+aLheeUseatpOW8lei1t+eahOazleW+i+i0o+S7u+OAgiANCuOAgOOAgO+8iOS4gO+8ieaIkeaWueS4jumHh+i0reS6uuaIlumHh+i0reS7o+eQhuacuuaehOS4jeWtmOWcqOmatuWxnuWFs+ezu+aIluiAheWFtuS7luWIqeWus+WFs+ezu+OAgiANCuOAgOOAgO+8iOS6jO+8ieaIkeaWueS4juWPguWKoOacrOmhueebrueahOWFtuS7luS+m+W6lOWVhuS4jeWtmOWcqOaOp+iCoeOAgeWFs+iBlOWFs+ezu++8jOaIluiAheS4juWFtuS7luS+m+W6lOWVhuazleWumuS7o+ihqOS6uu+8iOaIluiAhei0n+i0o+S6uu+8ieS4uuWQjOS4gOS6uuOAgiANCuOAgOOAgO+8iOS4ie+8ieaIkeaWueacquS4uuacrOmhueebruWJjeacn+WHhuWkh+aPkOS+m+iuvuiuoeaIluWSqOivouacjeWKoeOAgiANCuOAgOOAgOS6jOOAgeaIkeaWueaJv+ivuu+8iOaJv+ivuuacn++8muaIkOeri+S4ieW5tOS7peS4iueahO+8jOS4uuaPkOS6pOmmluasoeWTjeW6lOaWh+S7tuaIquatouaXtumXtOWJjeS4ieW5tOWGhe+8m+aIkOeri+S4jei2s+S4ieW5tOeahO+8jOS4uuWunumZheaXtumXtO+8ie+8miANCuOAgOOAgO+8iOS4gO+8ieaIkeaWueS+neazlee8tOe6s+S6huWQhOmhueeojui0ueWPiuWQhOmhueekvuS8muS/nemanOi1hOmHke+8jOayoeacieWBt+eojuOAgea8j+eojuWPiuasoOe8tOihjOS4uuOAgiANCuOAgOOAgO+8iOS6jO+8ieaIkeaWueWcqOe7j+iQpea0u+WKqOS4reayoeacieWtmOWcqOS4i+WIl+mHjeWkp+i/neazleiusOW9le+8miANCuOAgOOAgDHjgIHlj5fliLDliJHkuovlpITnvZrvvJsgDQrjgIDjgIAy44CB5Y+X5Yiw5LiJ5LiH5YWD5Lul5LiK55qE572a5qy+44CB6LSj5Luk5YGc5Lqn5YGc5Lia44CB5Zyo5LiA6Iez5LiJ5bm05YaF56aB5q2i5Y+C5Yqg5pS/5bqc6YeH6LSt5rS75Yqo44CB5pqC5omj5oiW6ICF5ZCK6ZSA6K645Y+v6K+B44CB5pqC5omj5oiW6ICF5ZCK6ZSA5omn54Wn55qE6KGM5pS/5aSE572a44CCIA0K44CA44CAICAgDQrjgIDjgIDkvpvlupTllYblkI3np7DvvIjnm5bljZXkvY3nq6DvvInvvJogICAgICAgICAgICAgICAgICAgDQrjgIDjgIDms5Xlrprku6PooajkurrvvIjnrb7lkI3vvInvvJogICAgICAgICAgICAgICAgICANCuOAgOOAgOaXpSAgICDmnJ/vvJogICAgICAg5bm0ICAgICDmnIggICAgIOaXpSANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgA0K44CA44CA6ZmE5Lu2MiAgICAgIOazleWumuS7o+ihqOS6uu+8iOi0n+i0o+S6uu+8iei6q+S7veivgeaYjiANCuOAgOOAgCjms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInlj4LliqDosIjliKQpIA0K44CA44CAIA0K44CA44CA5L6b5bqU5ZWG5ZCN56ew77yaICAgICAgICAgICAgICAgICAgIA0K44CA44CA5rOo5YaM5Y+377yaICAgICAgICAgICAgICAgICAgDQrjgIDjgIDms6jlhozlnLDlnYDvvJogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICANCuOAgOOAgOaIkOeri+aXtumXtO+8miAgICAgICDlubQgICAgIOaciCAgICDml6UgDQrjgIDjgIDnu4/okKXmnJ/pmZDvvJogICAgICAgICAgICAgICAgICANCuOAgOOAgOe7j+iQpeiMg+WbtO+8muS4u+iQpe+8miAgICAgICAgICAgIO+8m+WFvOiQpe+8miAgICAgICAgICAgICAgDQrjgIDjgIDlp5PlkI3vvJogICDmgKfliKvvvJogICDlubTpvoTvvJogICDns7sgICDvvIjkvpvlupTllYblkI3np7DvvInnmoTms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInjgIIgDQrjgIDjgIDnibnmraTor4HmmI7jgIIgDQrjgIDjgIDpmYTvvJrms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInouqvku73or4HlpI3ljbDku7YgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIDkvpvlupTllYblkI3np7DvvIjnm5bljZXkvY3nq6DvvInvvJogDQrjgIDjgIDml6XmnJ/vvJogICDlubQgICAgICAg5pyIICAgICAgIOaXpSAgICAgIA0K44CA44CAIA0K44CA44CAIA0K44CA44CAIA0K44CA44CAIA0K44CA44CAIA0K44CA44CAIA0K44CA44CAIA0K44CA44CADQrjgIDjgIANCuOAgOOAgA0K44CA44CADQrjgIDjgIANCuOAgOOAgCANCuOAgOOAgOazleWumuS7o+ihqOS6uu+8iOi0n+i0o+S6uu+8ieaOiOadg+S5piANCuOAgOOAgCAo5aeU5omY5Luj55CG5Lq65Y+C5Yqg6LCI5YikKSANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgOacrOS6uiAgICAgICAgICAg77yI5aeT5ZCN44CB6IGM5Yqh77yJ57O7ICAgICAgICAgICAgICAgICAgICAgICDvvIjkvpvlupTllYblkI3np7DvvInnmoTms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInvvIznjrDmjojmnYMgICAgICAgICAgICAg77yI5aeT5ZCN44CB6IGM5Yqh77yJ5Li65oiR5pa55Luj55CG5Lq644CC5Luj55CG5Lq65qC55o2u5o6I5p2D77yM5Lul5oiR5pa55ZCN5LmJ77yaKDEp562+572y44CB5r6E5riF44CB6KGl5q2j44CB5L+u5pS544CB5pKk5Zue44CB5o+Q5LqkICAgICAgICAgICAgICAgICAgICAg77yI6aG555uu5ZCN56ew44CB5pS/5bqc6YeH6LSt57yW5Y+344CB6YeH6LSt5Luj55CG5py65p6E57yW5Y+377yJ5ZON5bqU5paH5Lu277ybKDIp562+572y5bm26YeN5paw5o+Q5Lqk5ZON5bqU5paH5Lu25Y+K5pyA5ZCO5oql5Lu377ybKDMp6YCA5Ye66LCI5Yik77ybKDQp562+6K6i5ZCI5ZCM5ZKM5aSE55CG5pyJ5YWz5LqL5a6c77yM5YW25rOV5b6L5ZCO5p6c55Sx5oiR5pa55om/5ouF44CCIA0K44CA44CAIA0K44CA44CA5aeU5omY5pyf6ZmQOiANCuOAgOOAgOS7o+eQhuS6uuaXoOi9rOWnlOaJmOadg+OAgiANCuOAgOOAgOacrOaOiOadg+S5puS6jiAgICAgIOW5tCAgICAgIOaciCAgICAgIOaXpeetvuWtl+eUn+aViO+8jOeJueatpOWjsOaYjuOAgiANCuOAgOOAgOmZhO+8muWnlOaJmOS7o+eQhuS6uui6q+S7veivgeWkjeWNsOS7tuWPiuazleWumuS7o+ihqOS6uu+8iOi0n+i0o+S6uu+8iei6q+S7veivgeaYjiAgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIDms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInvvIjnrb7lrZfvvInvvJogICAgICAgICAgICAgICAgICAgICANCuOAgOOAgOWnlOaJmOS7o+eQhuS6uu+8iOetvuWtl++8ie+8miAgICAgICAgICAgICAgICAgICANCuOAgOOAgA==</t>
-  </si>
-  <si>
-    <t>6KGh5Y2X5Y6/6Iqx5qGl6ZWH5oC75a6Y5buJ56ef5oi/6YWN5aWX5Z+656GA6K6+5pa95bu66K6+5bel56iL5pS/5bqc6YeH6LSt6aG555uuDQoNCuOAgOOAgCDooaHpmLPnpo/mmIzmi5vmoIfku6PnkIbmnInpmZDotKPku7vlhazlj7gg5Y+XIOihoeWNl+WOv+iKseahpemVh+S6uuawkeaUv+W6nCDnmoTlp5TmiZjvvIzlr7kg6KGh5Y2X5Y6/6Iqx5qGl6ZWH5oC75a6Y5buJ56ef5oi/6YWN5aWX5Z+656GA6K6+5pa95bu66K6+5bel56iL5pS/5bqc6YeH6LSt6aG555uuIOi/m+ihjOernuS6ieaAp+iwiOWIpOmHh+i0re+8jOeOsOmHh+eUqOWPkeW4g+WFrOWRiuaWueW8j++8jOmCgOivt+espuWQiOi1hCDmoLzmnaHku7bnmoTkvpvlupTllYYg5o+QIOS6pOivgeaYjuadkOaWmSDlj4LkuI7otYTmoLwg5a6h5p+l77yM5bm25Y+C5LiO56ue5LqJ5oCn6LCI5Yik6YeH6LSt5rS75Yqo44CCIA0K44CA44CA5LiA44CB6aG555uu5qaC5Ya1IA0K44CA44CAMeOAgemHh+i0remhueebruWQjeensO+8miDooaHljZfljr/oirHmoaXplYfmgLvlrpjlu4nnp5/miL/phY3lpZfln7rnoYDorr7mlr3lu7rorr7lt6XnqIvmlL/lupzph4fotK3pobnnm64g77ybIA0K44CA44CAMuOAgemHh+i0reiuoeWIkue8luWPtyDvvJogSE5YMjAxNy1CMCA4NSDvvJsgICAgICAgICDlp5TmiZjku6PnkIbnvJblj7fvvJogSFlGQzIwMTctQjA0N++8myANCuOAgOOAgDPjgIHph4fotK3pobnnm67moIfnmoTjgIHmlbDph4/lj4rpooTnrpfvvJogICANCuOAgOOAgDTjgIHph4fotK3pobnnm67nmoTkuLvopoHpnIDmsYLlj4rosIjliKTlj6/og73lrp7otKjmgKflj5jliqjlhoXlrrnvvJogDQrjgIDjgIDkuozjgIHkvpvlupTllYbotYTotKjopoHmsYLvvJogDQrjgIDjgIAxLiDln7rmnKzotYTmoLzmnaHku7bvvJog56ym5ZCI44CK5Lit5Y2O5Lq65rCR5YWx5ZKM5Zu95pS/5bqc6YeH6LSt5rOV44CL56ys5LqM5Y2B5LqM5p2h6KeE5a6a55qE5L6b5bqU5ZWG5p2h5Lu2IO+8myANCuOAgOOAgDIuIOeJueWumui1hOagvOadoeS7tu+8miANCuOAgOOAgDIuMSDmipXmoIfkurrpobvlhbfmnIkg5bu6562RIOW3peeoiyDmiJbluILmlL/lt6XnqIsg5pa95bel5oC75om/5YyFIOWPgSDnuqfvvIjlj4rku6XkuIrvvInotYTotKjvvIzlronlhajnlJ/kuqforrjlj6/or4HlpITkuo7mnInmlYjmnJ875bm25Zyo5Lq65ZGY44CB6K6+5aSH44CB6LWE6YeR562J5pa56Z2i5YW35aSH55u45bqU55qE5pa95bel6IO95Yqb77ybIA0K44CA44CAMi4yIOaLn+S7u+mhueebrui0n+i0o+S6uuW6lOaMgeacieS9j+aIv+WSjOWfjuS5oeW7uuiuvumDqOaguOWPkeeahCDlu7rnrZEg5bel56iLIOaIluW4guaUv+W3peeoiyDkuJPkuJrotLDnuqflj4rku6XkuIrlu7rpgKDluIjms6jlhozor4HkuablubblhbfmnIlC57G75a6J5YWo55Sf5Lqn6ICD5qC45ZCI5qC86K+B5Lmm77yM5LiU5peg5Zyo5bu65bel56iLIOOAgiAgICAgICAgIA0K44CA44CA5LiJ44CB5L6b5bqU5ZWG5bqUIOaPkCDkuqTnmoTor4HmmI7mnZDmlpnlj4ror7TmmI4g77yaIA0K44CA44CAMeOAgeaPkOS6pOOAiui1hOagvOivgeaYjuadkOaWmeaJv+ivuuWHveOAi+WOn+S7tu+8jOagvOW8j+ingemZhOS7tjEgDQrjgIDjgIAy44CB5rOV5Lq65o+Q5Lqk5rOV5a6a5Luj6KGo5Lq66LWE5qC86K+B5piO5Lmm5aSN5Y2w5Lu25oiW6ICF5rOV5a6a5Luj6KGo5Lq65o6I5p2D5aeU5omY5Lmm5Y6f5Lu25bm26ZmE5rOV5a6a5Luj6KGo5Lq66Lqr5Lu96K+B5piO5aSN5Y2w5Lu277yb6Ieq54S25Lq65o+Q5Lqk6Lqr5Lu96K+B5piO5aSN5Y2w5Lu277yb5qC85byP6KeB6ZmE5Lu2Mu+8myANCuOAgOOAgDPjgIHms5Xkurrmj5DkuqTkvIHkuJrms5XkurrokKXkuJrmiafnhaflia/mnKzku6Xlj4rnu4Tnu4fmnLrmnoTku6PnoIHor4Hlia/mnKzljp/ku7bvvJsgDQrjgIDjgIA044CB5L6d5rOV57y057qz56iO5pS25ZKM56S+5Lya5L+d6Zmp6LS555qE6K+B5piO5p2Q5paZ77ya44CK56iO5Yqh55m76K6w6K+B44CL5ZKM44CK56S+5Lya5L+d6Zmp55m76K6w6K+B44CL55qE5aSN5Y2w5Lu277yM5oiW6ICF6L+R5LiJ5Liq5pyI5L6d5rOV57y057qz56iO5pS25ZKM56S+5Lya5L+d6Zmp6LS555qE6K+B5piO77yI57qz56iO5Y+K57y06LS55Yet6K+B5aSN5Y2w5Lu277yJ77yM5oiW6ICF5aeU5omY5LuW5Lq657y057qz55qE5aeU5omY5Luj5Yqe5Y2P6K6u5ZKM6L+R5LiJ5Liq5pyI55qE57y057qz6K+B5piO77yI5pS25o2u5aSN5Y2w5Lu277yJ77yM5oiW6ICF5rOV5a6a5b6B5pS25py65YWz5Ye65YW355qE5L6d5rOV5YWN57y056iO6LS555qE6K+B5piO5Y6f5Lu277yb77yI5bex6I635b6X4oCc57uf5LiA5L+h55So5Luj56CB4oCd55qE4oCc5LiJ6K+B5ZCI5LiA4oCd5LyB5Lia77yM5peg6aG75YaN5o+Q5L6b57uE57uH5py65p6E5Luj56CB5Y+K56iO5Yqh55m76K6w6K+B77yJ77ybIA0K44CA44CANeOAgSDlj4LliqDmlL/lupzph4fotK3mtLvliqjliY0z5bm05YaF77yM5Zyo57uP6JCl5rS75Yqo5Lit5rKh5pyJ6YeN5aSn6L+d5rOV6K6w5b2VIO+8iOagueaNruaKleagh+S6uuiQpeS4muaJp+eFp+azqOWGjOaJgOWcqOWcsOajgOWvn+mDqOmXqCDmjInnhafpq5jmo4DkvJpbMjAxNV0z5Y+35paH5Lu26IeqMjAxN+W5tDEgMiDmnIjku73ku6XmnaXlh7rlhbfnmoTmn6Xor6Lor4HmmI7ljp/ku7bkuLrlh4Yg77yJIO+8myANCuOAgOOAgDbjgIHmnKzpgoDor7flhazlkYropoHmsYLnmoTnibnlrprotYTmoLzmnaHku7bor4HmmI7mnZDmlpnjgIIgDQrjgIDjgIDlm5vjgIHotYTmoLzlrqHmn6Xor4HmmI7mnZDmlpnnmoTpgJLkuqQgDQrjgIDjgIAx44CB5oyJ5pys6YKA6K+35YWs5ZGK56ys5LiJ5p2h6KeE5a6a5o+Q5Lqk55qE6K+B5piO5p2Q5paZ5Y+K6K+05piO5bqU6KOF6K6i5oiQ5YaM77yM5LiA5byP5Lik5Lu977yM5bm26aG75Yqg55uW5oqV5qCH5Y2V5L2N5YWs56ug5a+G5bCB77ybIA0K44CA44CAMuOAgei1hOagvOWuoeafpeivgeaYjuadkOaWmeeahOmAkuS6pOaIquatouaXtumXtCDkuLoyMDE35bm0MSAyIOaciCAyMCDml6UxN+aXtjAw5YiG77yIIOWMl+S6rOaXtumXtOOAgeiKguWBh+aXpemZpOWklu+8ieOAgeWcsOeCueS4uiDooaHpmLPluILljY7mlrDlvIDlj5HljLrplb/kuLDlpKfpgZMyOOWPt+axh+aZr+iKseWbrTLmoIsy5Y2V5YWDMjcwMuWupCDjgILpgL7mnJ/pgIHovr7nmoTvvIzkuI3kuojlj5fnkIbjgIIgDQrjgIDjgIDkupTjgIHnoa7lrprpgoDor7fkvpvlupTllYYgDQrjgIDjgIAgICDosIjliKTlsI/nu4Tku47nrKblkIjnm7jlupTotYTmoLzmnaHku7bnmoTkvpvlupTllYblkI3ljZXkuK3noa7lrprkuI3lsJHkuo7kuInlrrbnmoTkvpvlupTllYblj4LkuI7nq57kuonmgKfosIjliKTph4fotK3mtLvliqjjgIIgDQrjgIDjgIDlha3jgIEg6IGU57O75pa55byPIA0K44CA44CAIOmHh+i0reS6uuWQjeensO+8miDooaHljZfljr/oirHmoaXplYfkurrmsJHmlL/lupwgICAgICAgICAgICAgICAgICAgICAgICAgICAgDQrjgIDjgIAg5Zyw5Z2A77yaIOihoeWNl+WOv+iKseahpemVh+iKseiLkeilv+i3ryAgIA0K44CA44CAIOiBlOezu+S6uu+8miDokovmrablubMgICAgICAgICAgICAgICAgICAg6IGU57O7IOeUteivne+8miAxMzc4NzcxOTE3OCAgICANCuOAgOOAgCDph4fotK3ku6PnkIbmnLrmnoTlkI3np7DvvJrooaHpmLPnpo/mmIzmi5vmoIfku6PnkIbmnInpmZDotKPku7vlhazlj7ggDQrjgIDjgIAg5Zyw5Z2A77ya6KGh6Ziz5biC5Y2O5paw5byA5Y+R5Yy66ZW/5Liw5aSn6YGTMjjlj7fmsYfmma/oirHlm63kuozmoIvkuozljZXlhYMyNzAy5a6kIA0K44CA44CAIOiBlOezu+S6uu+8miDlkajkuprlhpsgICAgICAgICAgICAgICDogZTns7sg55S16K+d77yaIDA3MzQtMjg4MDI4NyAgIDEzODA3MzQ3MTMzIA0K44CA44CAICAgICAg55uR552j566h55CG6YOo6Zeo77ya6KGh5Y2X5Y6/5pS/5bqc6YeH6LSt566h55CG5Yqe5YWs5a6kIA0K44CA44CA6IGU57O75Lq677ya6Ziz5Li75Lu7ICAgICAgICAgICAg6IGU57O755S16K+d77yaMDczNC04NTUwNzgwICAgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIDpmYTku7YxICAgICDotYTmoLzor4HmmI7mnZDmlpnmib/or7rlh70gDQrjgIDjgIAgDQrjgIDjgIDmiJHku6zvvIwgICAgICAgICAgICAgICAgICAg77yI5L6b5bqU5ZWG5ZCN56ew77yJ5bey6K6k55yf6ZiF6K+744CK5Lit5Y2O5Lq65rCR5YWx5ZKM5Zu95pS/5bqc6YeH6LSt5rOV44CL5Y+K44CK56ue5LqJ5oCn6LCI5Yik6YKA6K+35YWs5ZGK44CLWyAgICAgICAgICAgICAgICAgICAgICAgICAg77yI6aG555uu5ZCN56ew77yJ77yM5pS/5bqc6YeH6LSt57yW5Y+377yaICAgICAgICAgICAgICDvvIzlp5TmiZjku6PnkIbnvJblj7fvvJogICAgICAgICAgICAgIF3nm7jlhbPlhoXlrrnvvIznn6XmgonkvpvlupTllYblj4LliqDmlL/lupzph4fotK3mtLvliqjlupTlvZPlhbflpIfnmoTmnaHku7bjgILmraTmrKHmjInjgIrnq57kuonmgKfosIjliKTpgoDor7flhazlkYrjgIvopoHmsYLmj5DkuqTnmoTkvpvlupTllYbotYTmoLzor4HmmI7mnZDmlpnvvIzlt7Lnu4/orqTnnJ/moLjlr7nlkozmo4Dmn6XvvIzlhajpg6jlhoXlrrnnnJ/lrp7jgIHlkIjms5XjgIHlh4bnoa7lkozlrozmlbTvvIzmiJHku6zlr7nmraTotJ/otKPvvIzlubbmhL/mib/mi4XnlLHmraTlvJXotbfnmoTms5XlvovotKPku7vjgIIgDQrjgIDjgIDvvIjkuIDvvInmiJHmlrnkuI7ph4fotK3kurrmiJbph4fotK3ku6PnkIbmnLrmnoTkuI3lrZjlnKjpmrblsZ7lhbPns7vmiJbogIXlhbbku5bliKnlrrPlhbPns7vjgIIgDQrjgIDjgIDvvIjkuozvvInmiJHmlrnkuI7lj4LliqDmnKzpobnnm67nmoTlhbbku5bkvpvlupTllYbkuI3lrZjlnKjmjqfogqHjgIHlhbPogZTlhbPns7vvvIzmiJbogIXkuI7lhbbku5bkvpvlupTllYbms5Xlrprku6PooajkurrvvIjmiJbogIXotJ/otKPkurrvvInkuLrlkIzkuIDkurrjgIIgDQrjgIDjgIDvvIjkuInvvInmiJHmlrnmnKrkuLrmnKzpobnnm67liY3mnJ/lh4blpIfmj5Dkvpvorr7orqHmiJblkqjor6LmnI3liqHjgIIgDQrjgIDjgIDkuozjgIHmiJHmlrnmib/or7rvvIjmib/or7rmnJ/vvJrmiJDnq4vkuInlubTku6XkuIrnmoTvvIzkuLrmj5DkuqTpppbmrKHlk43lupTmlofku7bmiKrmraLml7bpl7TliY3kuInlubTlhoXvvJvmiJDnq4vkuI3otrPkuInlubTnmoTvvIzkuLrlrp7pmYXml7bpl7TvvInvvJogDQrjgIDjgIDvvIjkuIDvvInmiJHmlrnkvp3ms5XnvLTnurPkuoblkITpobnnqI7otLnlj4rlkITpobnnpL7kvJrkv53pmpzotYTph5HvvIzmsqHmnInlgbfnqI7jgIHmvI/nqI7lj4rmrKDnvLTooYzkuLrjgIIgDQrjgIDjgIDvvIjkuozvvInmiJHmlrnlnKjnu4/okKXmtLvliqjkuK3msqHmnInlrZjlnKjkuIvliJfph43lpKfov53ms5XorrDlvZXvvJogDQrjgIDjgIAx44CB5Y+X5Yiw5YiR5LqL5aSE572a77ybIA0K44CA44CAMuOAgeWPl+WIsOS4ieS4h+WFg+S7peS4iueahOe9muasvuOAgei0o+S7pOWBnOS6p+WBnOS4muOAgeWcqOS4gOiHs+S4ieW5tOWGheemgeatouWPguWKoOaUv+W6nOmHh+i0rea0u+WKqOOAgeaaguaJo+aIluiAheWQiumUgOiuuOWPr+ivgeOAgeaaguaJo+aIluiAheWQiumUgOaJp+eFp+eahOihjOaUv+WkhOe9muOAgiANCuOAgOOAgCAgIA0K44CA44CA5L6b5bqU5ZWG5ZCN56ew77yI55uW5Y2V5L2N56ug77yJ77yaICAgICAgICAgICAgICAgICAgIA0K44CA44CA5rOV5a6a5Luj6KGo5Lq677yI562+5ZCN77yJ77yaICAgICAgICAgICAgICAgICAgDQrjgIDjgIDml6UgICAg5pyf77yaICAgICAgIOW5tCAgICAg5pyIICAgICDml6UgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIANCuOAgOOAgOmZhOS7tjIgICAgICDms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInouqvku73or4HmmI4gDQrjgIDjgIAo5rOV5a6a5Luj6KGo5Lq677yI6LSf6LSj5Lq677yJ5Y+C5Yqg6LCI5YikKSANCuOAgOOAgCANCuOAgOOAgOS+m+W6lOWVhuWQjeensO+8miAgICAgICAgICAgICAgICAgICANCuOAgOOAgOazqOWGjOWPt++8miAgICAgICAgICAgICAgICAgIA0K44CA44CA5rOo5YaM5Zyw5Z2A77yaICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgDQrjgIDjgIDmiJDnq4vml7bpl7TvvJogICAgICAg5bm0ICAgICDmnIggICAg5pelIA0K44CA44CA57uP6JCl5pyf6ZmQ77yaICAgICAgICAgICAgICAgICAgDQrjgIDjgIDnu4/okKXojIPlm7TvvJrkuLvokKXvvJogICAgICAgICAgICDvvJvlhbzokKXvvJogICAgICAgICAgICAgIA0K44CA44CA5aeT5ZCN77yaICAg5oCn5Yir77yaICAg5bm06b6E77yaICAg57O7ICAg77yI5L6b5bqU5ZWG5ZCN56ew77yJ55qE5rOV5a6a5Luj6KGo5Lq677yI6LSf6LSj5Lq677yJ44CCIA0K44CA44CA54m55q2k6K+B5piO44CCIA0K44CA44CA6ZmE77ya5rOV5a6a5Luj6KGo5Lq677yI6LSf6LSj5Lq677yJ6Lqr5Lu96K+B5aSN5Y2w5Lu2IA0K44CA44CAIA0K44CA44CAIA0K44CA44CA5L6b5bqU5ZWG5ZCN56ew77yI55uW5Y2V5L2N56ug77yJ77yaIA0K44CA44CA5pel5pyf77yaICAg5bm0ICAgICAgIOaciCAgICAgICDml6UgICAgICANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgCANCuOAgOOAgA0K44CA44CADQrjgIDjgIANCuOAgOOAgA0K44CA44CADQrjgIDjgIAgDQrjgIDjgIDms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInmjojmnYPkuaYgDQrjgIDjgIAgKOWnlOaJmOS7o+eQhuS6uuWPguWKoOiwiOWIpCkgDQrjgIDjgIAgDQrjgIDjgIAgDQrjgIDjgIDmnKzkurogICAgICAgICAgIO+8iOWnk+WQjeOAgeiBjOWKoe+8ieezuyAgICAgICAgICAgICAgICAgICAgICAg77yI5L6b5bqU5ZWG5ZCN56ew77yJ55qE5rOV5a6a5Luj6KGo5Lq677yI6LSf6LSj5Lq677yJ77yM546w5o6I5p2DICAgICAgICAgICAgIO+8iOWnk+WQjeOAgeiBjOWKoe+8ieS4uuaIkeaWueS7o+eQhuS6uuOAguS7o+eQhuS6uuagueaNruaOiOadg++8jOS7peaIkeaWueWQjeS5ie+8migxKeetvue9suOAgea+hOa4heOAgeihpeato+OAgeS/ruaUueOAgeaSpOWbnuOAgeaPkOS6pCAgICAgICAgICAgICAgICAgICAgIO+8iOmhueebruWQjeensOOAgeaUv+W6nOmHh+i0ree8luWPt+OAgemHh+i0reS7o+eQhuacuuaehOe8luWPt++8ieWTjeW6lOaWh+S7tu+8mygyKeetvue9suW5tumHjeaWsOaPkOS6pOWTjeW6lOaWh+S7tuWPiuacgOWQjuaKpeS7t++8mygzKemAgOWHuuiwiOWIpO+8myg0KeetvuiuouWQiOWQjOWSjOWkhOeQhuacieWFs+S6i+WunO+8jOWFtuazleW+i+WQjuaenOeUseaIkeaWueaJv+aLheOAgiANCuOAgOOAgCANCuOAgOOAgOWnlOaJmOacn+mZkDogDQrjgIDjgIDku6PnkIbkurrml6Dovazlp5TmiZjmnYPjgIIgDQrjgIDjgIDmnKzmjojmnYPkuabkuo4gICAgICDlubQgICAgICDmnIggICAgICDml6Xnrb7lrZfnlJ/mlYjvvIznibnmraTlo7DmmI7jgIIgDQrjgIDjgIDpmYTvvJrlp5TmiZjku6PnkIbkurrouqvku73or4HlpI3ljbDku7blj4rms5Xlrprku6PooajkurrvvIjotJ/otKPkurrvvInouqvku73or4HmmI4gIA0K44CA44CAIA0K44CA44CAIA0K44CA44CA5rOV5a6a5Luj6KGo5Lq677yI6LSf6LSj5Lq677yJ77yI562+5a2X77yJ77yaICAgICAgICAgICAgICAgICAgICAgDQrjgIDjgIDlp5TmiZjku6PnkIbkurrvvIjnrb7lrZfvvInvvJogICAgICAgICAgICAgICAgICAgDQrjgIDjgIA=</t>
-  </si>
-  <si>
     <t>http://www.ccgp.gov.cn/cggg/dfgg/cjgg/201712/t20171229_9417466.htm</t>
   </si>
   <si>
@@ -270,12 +258,6 @@
     <t>公告概要：公告信息：采购项目名称文山州公安局视频图像信息解析综合应用服务系统采购项目。</t>
   </si>
   <si>
-    <t>44CA44CA5YWs5ZGK5qaC6KaB77yaDQrjgIDjgIDlhazlkYrkv6Hmga/vvJoNCuOAgOOAgOmHh+i0remhueebruWQjeensOaWh+WxseW3nuWFrOWuieWxgOinhumikeWbvuWDj+S/oeaBr+ino+aekOe7vOWQiOW6lOeUqOacjeWKoeezu+e7n+mHh+i0remhueebrg0K44CA44CA5ZOB55uuDQrjgIDjgIDotKfniakv6YCa55So6K6+5aSHL+iuoeeul+acuuiuvuWkh+WPiui9r+S7ti/ovpPlhaXovpPlh7rorr7lpIcv6K+G5Yir6L6T5YWl6K6+5aSHL+WFtuS7luivhuWIq+i+k+WFpeiuvuWkhw0K44CA44CA6YeH6LSt5Y2V5L2N5paH5bGx5aOu5peP6IuX5peP6Ieq5rK75bee5YWs5a6J5bGADQrjgIDjgIDooYzmlL/ljLrln5/mloflsbHlo67ml4/oi5fml4/oh6rmsrvlt57lhazlkYrml7bpl7QyMDE35bm0MTLmnIgyOeaXpSAgMTE6NDkNCuOAgOOAgOacrOmhueebruaLm+agh+WFrOWRiuaXpeacnzIwMTflubQxMuaciDEy5pel5oiQ5Lqk5pel5pyfMjAxN+W5tDEy5pyIMjjml6UNCuOAgOOAgOiwiOWIpOWwj+e7hOOAgeivouS7t+Wwj+e7hOaIkOWRmOOAgeeji+WVhuWwj+e7hOaIkOWRmOWQjeWNleWPiuWNleS4gOadpea6kOmHh+i0reS6uuWRmOWQjeWNlee6quaBrei3g+OAgeadqOS/iuOAgeWRqOWFiOOAgeWImOWdmuOAgeS7neWFtA0K44CA44CA5oC75oiQ5Lqk6YeR6aKd77+lMjY5MTAwMCDkuIflhYPvvIjkurrmsJHluIHvvIkNCuOAgOOAgOiBlOezu+S6uuWPiuiBlOezu+aWueW8j++8mg0K44CA44CA6aG555uu6IGU57O75Lq65byg5biIDQrjgIDjgIDpobnnm67ogZTns7vnlLXor50wODc2LTI4NTY5OTUNCuOAgOOAgOmHh+i0reWNleS9jeaWh+WxseWjruaXj+iLl+aXj+iHquayu+W3nuWFrOWuieWxgA0K44CA44CA6YeH6LSt5Y2V5L2N5Zyw5Z2A5paH5bGx5biC5YaFDQrjgIDjgIDph4fotK3ljZXkvY3ogZTns7vmlrnlvI8wODc2LTI4NTIzNTMNCuOAgOOAgOS7o+eQhuacuuaehOWQjeensOS6keWNl+WKoOWumuaLm+aKleagh+S7o+eQhuaciemZkOWFrOWPuA0K44CA44CA5Luj55CG5py65p6E5Zyw5Z2A5paH5bGx5LiJ6ZGr5py655S15Z+O5Yqy6L6+6L2m6L6G566h55CG5omA5Yqe5YWs5qW85LqM5qW8DQrjgIDjgIDku6PnkIbmnLrmnoTogZTns7vmlrnlvI8wODc2LTI4NTY5OTU=</t>
-  </si>
-  <si>
-    <t>5paH5bGx5bee5YWs5a6J5bGA6KeG6aKR5Zu+5YOP5L+h5oGv6Kej5p6Q57u85ZCI5bqU55So5pyN5Yqh57O757uf6YeH6LSt6aG555uu5oiQ5Lqk5YWs5ZGKDQoNCuOAgOOAgOWFrOWRiuamguimge+8mg0K44CA44CA5YWs5ZGK5L+h5oGv77yaDQrjgIDjgIDph4fotK3pobnnm67lkI3np7DmloflsbHlt57lhazlronlsYDop4bpopHlm77lg4/kv6Hmga/op6PmnpDnu7zlkIjlupTnlKjmnI3liqHns7vnu5/ph4fotK3pobnnm64NCuOAgOOAgOWTgeebrg0K44CA44CA6LSn54mpL+mAmueUqOiuvuWkhy/orqHnrpfmnLrorr7lpIflj4rova/ku7Yv6L6T5YWl6L6T5Ye66K6+5aSHL+ivhuWIq+i+k+WFpeiuvuWkhy/lhbbku5bor4bliKvovpPlhaXorr7lpIcNCuOAgOOAgOmHh+i0reWNleS9jeaWh+WxseWjruaXj+iLl+aXj+iHquayu+W3nuWFrOWuieWxgA0K44CA44CA6KGM5pS/5Yy65Z+f5paH5bGx5aOu5peP6IuX5peP6Ieq5rK75bee5YWs5ZGK5pe26Ze0MjAxN+W5tDEy5pyIMjnml6UgIDExOjQ5DQrjgIDjgIDmnKzpobnnm67mi5vmoIflhazlkYrml6XmnJ8yMDE35bm0MTLmnIgxMuaXpeaIkOS6pOaXpeacnzIwMTflubQxMuaciDI45pelDQrjgIDjgIDosIjliKTlsI/nu4TjgIHor6Lku7flsI/nu4TmiJDlkZjjgIHno4vllYblsI/nu4TmiJDlkZjlkI3ljZXlj4rljZXkuIDmnaXmupDph4fotK3kurrlkZjlkI3ljZXnuqrmga3ot4PjgIHmnajkv4rjgIHlkajlhYjjgIHliJjlnZrjgIHku53lhbQNCuOAgOOAgOaAu+aIkOS6pOmHkemine+/pTI2OTEwMDAg5LiH5YWD77yI5Lq65rCR5biB77yJDQrjgIDjgIDogZTns7vkurrlj4rogZTns7vmlrnlvI/vvJoNCuOAgOOAgOmhueebruiBlOezu+S6uuW8oOW4iA0K44CA44CA6aG555uu6IGU57O755S16K+dMDg3Ni0yODU2OTk1DQrjgIDjgIDph4fotK3ljZXkvY3mloflsbHlo67ml4/oi5fml4/oh6rmsrvlt57lhazlronlsYANCuOAgOOAgOmHh+i0reWNleS9jeWcsOWdgOaWh+WxseW4guWGhQ0K44CA44CA6YeH6LSt5Y2V5L2N6IGU57O75pa55byPMDg3Ni0yODUyMzUzDQrjgIDjgIDku6PnkIbmnLrmnoTlkI3np7DkupHljZfliqDlrprmi5vmipXmoIfku6PnkIbmnInpmZDlhazlj7gNCuOAgOOAgOS7o+eQhuacuuaehOWcsOWdgOaWh+WxseS4iemRq+acuueUteWfjuWKsui+vui9pui+hueuoeeQhuaJgOWKnuWFrOalvOS6jOalvA0K44CA44CA5Luj55CG5py65p6E6IGU57O75pa55byPMDg3Ni0yODU2OTk1</t>
-  </si>
-  <si>
     <t>http://www.ccgp.gov.cn/cggg/dfgg/jzxtpgg/201712/t20171219_9363814.htm</t>
   </si>
   <si>
@@ -289,12 +271,6 @@
   </si>
   <si>
     <t>公告概要：公告信息：采购项目名称毕节市公安消防支队采购灭火救援装备器材项目( B包抢险救援消防车)二次。</t>
-  </si>
-  <si>
-    <t>44CA44CA5YWs5ZGK5qaC6KaB77yaDQrjgIDjgIDlhazlkYrkv6Hmga/vvJoNCuOAgOOAgOmHh+i0remhueebruWQjeensOavleiKguW4guWFrOWuiea2iOmYsuaUr+mYn+mHh+i0reeBreeBq+aVkeaPtOijheWkh+WZqOadkOmhueebrihC5YyF5oqi6Zmp5pWR5o+05raI6Ziy6L2mKeS6jOasoQ0K44CA44CA5ZOB55uuDQrjgIDjgIDph4fotK3ljZXkvY3mr5XoioLluILlhazlronmtojpmLLmlK/pmJ8NCuOAgOOAgOihjOaUv+WMuuWfn+avleiKguW4guWFrOWRiuaXtumXtDIwMTflubQxMuaciDE55pelICAxNzo1Mg0K44CA44CA6I635Y+W6LCI5Yik5paH5Lu255qE5Zyw54K5572R5LiK6LCI5YikLOS+m+W6lOWVhuaXoOmcgOWIsOiwiOWIpOeOsOWcuuOAgg0K44CA44CA6I635Y+W6LCI5Yik5paH5Lu255qE5pe26Ze0MjAxN+W5tDEy5pyIMjDml6UgIDA4OjMwICDoh7MgIDIwMTflubQxMuaciDIy5pelICAxNzozMA0K44CA44CA6aKE566X6YeR6aKd77+lOTXkuIflhYPvvIjkurrmsJHluIHvvIkNCuOAgOOAgOiBlOezu+S6uuWPiuiBlOezu+aWueW8j++8mg0K44CA44CA6aG555uu6IGU57O75Lq6572X5Lya5Li9DQrjgIDjgIDpobnnm67ogZTns7vnlLXor50xODE4NTcxNjY2OA0K44CA44CA6YeH6LSt5Y2V5L2N5q+V6IqC5biC5YWs5a6J5raI6Ziy5pSv6ZifDQrjgIDjgIDph4fotK3ljZXkvY3lnLDlnYDmr5XoioLluILkuIPmmJ/lhbPljLrotLXmr5Xot6835Y+3DQrjgIDjgIDph4fotK3ljZXkvY3ogZTns7vmlrnlvI8wODU3LTgyOTQ1MzQNCuOAgOOAgOS7o+eQhuacuuaehOWQjeensOi0teW3nuaYjuivmuaLm+agh+aciemZkOWFrOWPuA0K44CA44CA5Luj55CG5py65p6E5Zyw5Z2A5q+V6IqC5biC5LiD5pif5YWz5Yy65a2m6Zmi6Lev5Lic5a6i56uZ5peB6YeR5bid6LGq5bqtQuagizI1MDXlrqQNCuOAgOOAgOS7o+eQhuacuuaehOiBlOezu+aWueW8jzE4MTg1NzE2NjY4</t>
-  </si>
-  <si>
-    <t>5q+V6IqC5biC5YWs5a6J5raI6Ziy5pSv6Zif6YeH6LSt54Gt54Gr5pWR5o+06KOF5aSH5Zmo5p2Q6aG555uuKELljIXmiqLpmanmlZHmj7TmtojpmLLovaYp5LqM5qyh6YeH6LSt5YWs5ZGKDQoNCuOAgOOAgOWFrOWRiuamguimge+8mg0K44CA44CA5YWs5ZGK5L+h5oGv77yaDQrjgIDjgIDph4fotK3pobnnm67lkI3np7Dmr5XoioLluILlhazlronmtojpmLLmlK/pmJ/ph4fotK3nga3ngavmlZHmj7Too4XlpIflmajmnZDpobnnm64oQuWMheaKoumZqeaVkeaPtOa2iOmYsui9pinkuozmrKENCuOAgOOAgOWTgeebrg0K44CA44CA6YeH6LSt5Y2V5L2N5q+V6IqC5biC5YWs5a6J5raI6Ziy5pSv6ZifDQrjgIDjgIDooYzmlL/ljLrln5/mr5XoioLluILlhazlkYrml7bpl7QyMDE35bm0MTLmnIgxOeaXpSAgMTc6NTINCuOAgOOAgOiOt+WPluiwiOWIpOaWh+S7tueahOWcsOeCuee9keS4iuiwiOWIpCzkvpvlupTllYbml6DpnIDliLDosIjliKTnjrDlnLrjgIINCuOAgOOAgOiOt+WPluiwiOWIpOaWh+S7tueahOaXtumXtDIwMTflubQxMuaciDIw5pelICAwODozMCAg6IezICAyMDE35bm0MTLmnIgyMuaXpSAgMTc6MzANCuOAgOOAgOmihOeul+mHkemine+/pTk15LiH5YWD77yI5Lq65rCR5biB77yJDQrjgIDjgIDogZTns7vkurrlj4rogZTns7vmlrnlvI/vvJoNCuOAgOOAgOmhueebruiBlOezu+S6uue9l+S8muS4vQ0K44CA44CA6aG555uu6IGU57O755S16K+dMTgxODU3MTY2NjgNCuOAgOOAgOmHh+i0reWNleS9jeavleiKguW4guWFrOWuiea2iOmYsuaUr+mYnw0K44CA44CA6YeH6LSt5Y2V5L2N5Zyw5Z2A5q+V6IqC5biC5LiD5pif5YWz5Yy66LS15q+V6LevN+WPtw0K44CA44CA6YeH6LSt5Y2V5L2N6IGU57O75pa55byPMDg1Ny04Mjk0NTM0DQrjgIDjgIDku6PnkIbmnLrmnoTlkI3np7DotLXlt57mmI7or5rmi5vmoIfmnInpmZDlhazlj7gNCuOAgOOAgOS7o+eQhuacuuaehOWcsOWdgOavleiKguW4guS4g+aYn+WFs+WMuuWtpumZoui3r+S4nOWuouermeaXgemHkeW4neixquW6rULmoIsyNTA15a6kDQrjgIDjgIDku6PnkIbmnLrmnoTogZTns7vmlrnlvI8xODE4NTcxNjY2OA==</t>
   </si>
   <si>
     <t>http://www.ccgp-shandong.gov.cn/sdgp2014/site/read.jsp?id=200560972</t>
@@ -323,13 +299,63 @@
     <t>六、成交情况：包号采购内容供应商名称地址成交金额。</t>
   </si>
   <si>
-    <t>44CA44CA5bGx5Lic5aSW6LS46IGM5Lia5a2m6Zmi6Z2S5bKb5qCh5Yy65Zu96ZmF6LS45piT57u85ZCI5oqA6IO95a6e6K6t5LiO56ue6LWb5bmz5Y+w5Y2V5LiA5p2l5rqQ6YeH6LSt5oiQ5Lqk5YWs5ZGKDQrjgIDjgIAoIOaIkOS6pOe7k+aenOeahOWFrOWRiuacn+mZkOS4ujHkuKrlt6XkvZzml6UgKQ0K44CA44CA5LiA44CB6YeH6LSt6aG555uu5ZCN56ew77ya5bGx5Lic5aSW6LS46IGM5Lia5a2m6Zmi6Z2S5bKb5qCh5Yy65Zu96ZmF6LS45piT57u85ZCI5oqA6IO95a6e6K6t5LiO56ue6LWb5bmz5Y+w5Y2V5LiA5p2l5rqQ6YeH6LStDQrjgIDjgIDkuozjgIHph4fotK3pobnnm67nvJblj7fvvJpTSFpCMjAxNy00NzYNCuOAgOOAgOS4ieOAgeaLm+agh+WFrOWRiuWPkeW4g+aXpeacn++8mjIwMTflubQxMeaciDfml6UNCuOAgOOAgOWbm+OAgeaIkOS6pOaXpeacn++8mjIwMTflubQxMeaciDI45pelDQrjgIDjgIDkupTjgIHph4fotK3mlrnlvI/vvJrljZXkuIDmnaXmupANCuOAgOOAgOWFreOAgeaIkOS6pOaDheWGte+8mg0K44CA44CA5YyF5Y+36YeH6LSt5YaF5a655L6b5bqU5ZWG5ZCN56ew5Zyw5Z2A5oiQ5Lqk6YeR6aKdDQrjgIDjgIAx6Z2S5bKb5qCh5Yy65Zu96ZmF6LS45piT57u85ZCI5oqA6IO95a6e6K6t5LiO56ue6LWb5bmz5Y+wIOa1juWNl+WNjuWzu+enkeaKgOaciemZkOWFrOWPuCDlsbHkuJznnIHmtY7ljZfluILpq5jmlrDljLroiJzljY7ot68zNTnlj7fogZTlkIjotKLlr4zlub/lnLox5Y+35qW8MjAwNeWupCAxNzQ3MDDlhYMgDQrjgIDjgIDkuIPjgIHph4fotK3lsI/nu4TmiJDlkZjlkI3ljZXvvJox5YyF77ya5p2o5YW144CB5p2O5bu65p2w44CB546L5rW344CB546L57u05oGt44CB5YiY54+JDQrjgIDjgIDlhavjgIHph4fotK3lsI/nu4TmiJDlkZjor4TlrqHnu5PmnpzvvIjnq57kuonmgKfno4vllYbmlrnlvI/vvInvvJoNCuOAgOOAgOS5neOAgeiBlOezu+aWueW8jw0K44CA44CAMS7ph4fotK3kurrvvJrlsbHkuJzlpJbotLjogYzkuJrlrabpmaINCuOAgOOAgOWcsOWdgO+8mumdkuWym+W4guadjuayp+WMuuW3qOWzsOi3rzIwMeWPtyjlsbHkuJzlpJbotLjogYzkuJrlrabpmaIpDQrjgIDjgIDogZTns7vkurrvvJrog6HogIHluIgo5bGx5Lic5aSW6LS46IGM5Lia5a2m6ZmiKQ0K44CA44CA6IGU57O75pa55byP77yaMDUzMi01NTc2MTI2NyjlsbHkuJzlpJbotLjogYzkuJrlrabpmaIpDQrjgIDjgIAyLuS7o+eQhuacuuaehO+8muWxseS4nOebm+WSjOaLm+agh+S7o+eQhuaciemZkOWFrOWPuA0K44CA44CA5Zyw5Z2A77ya5bGx5Lic55yB77yI6Ieq5rK75Yy644CB55u06L6W5biC77yJ6Z2S5bKb5biC77yI5bee77yJ5biC5YyX5Yy65Y6/77yI5Yy644CB5biC77yJ5pWm5YyW6Lev6KGX6YGT77yI6Lev44CB5Lmh44CB6ZWH77yJMTM45Y+35Y+377yI5p2R77yJ6KW/546L5aSn5Y6mMjNBMDHlrqQNCuOAgOOAgOiBlOezu+S6uu+8muS+r+e+jueOsg0K44CA44CA6IGU57O75pa55byP77yaMDUzMi04NTY1OTkxOA==</t>
-  </si>
-  <si>
-    <t>5bGx5Lic5aSW6LS46IGM5Lia5a2m6Zmi6Z2S5bKb5qCh5Yy65Zu96ZmF6LS45piT57u85ZCI5oqA6IO95a6e6K6t5LiO56ue6LWb5bmz5Y+w5Y2V5LiA5p2l5rqQ6YeH6LSt5oiQ5Lqk5YWs5ZGKDQooIOaIkOS6pOe7k+aenOeahOWFrOWRiuacn+mZkOS4ujHkuKrlt6XkvZzml6UgKQ0KDQoNCuOAgOOAgOWxseS4nOWklui0uOiBjOS4muWtpumZoumdkuWym+agoeWMuuWbvemZhei0uOaYk+e7vOWQiOaKgOiDveWunuiureS4juernui1m+W5s+WPsOWNleS4gOadpea6kOmHh+i0reaIkOS6pOWFrOWRig0K44CA44CAKCDmiJDkuqTnu5PmnpznmoTlhazlkYrmnJ/pmZDkuLox5Liq5bel5L2c5pelICkNCuOAgOOAgOS4gOOAgemHh+i0remhueebruWQjeensO+8muWxseS4nOWklui0uOiBjOS4muWtpumZoumdkuWym+agoeWMuuWbvemZhei0uOaYk+e7vOWQiOaKgOiDveWunuiureS4juernui1m+W5s+WPsOWNleS4gOadpea6kOmHh+i0rQ0K44CA44CA5LqM44CB6YeH6LSt6aG555uu57yW5Y+377yaU0haQjIwMTctNDc2DQrjgIDjgIDkuInjgIHmi5vmoIflhazlkYrlj5HluIPml6XmnJ/vvJoyMDE35bm0MTHmnIg35pelDQrjgIDjgIDlm5vjgIHmiJDkuqTml6XmnJ/vvJoyMDE35bm0MTHmnIgyOOaXpQ0K44CA44CA5LqU44CB6YeH6LSt5pa55byP77ya5Y2V5LiA5p2l5rqQDQrjgIDjgIDlha3jgIHmiJDkuqTmg4XlhrXvvJoNCuOAgOOAgOWMheWPt+mHh+i0reWGheWuueS+m+W6lOWVhuWQjeensOWcsOWdgOaIkOS6pOmHkeminQ0K44CA44CAMemdkuWym+agoeWMuuWbvemZhei0uOaYk+e7vOWQiOaKgOiDveWunuiureS4juernui1m+W5s+WPsCDmtY7ljZfljY7ls7vnp5HmioDmnInpmZDlhazlj7gg5bGx5Lic55yB5rWO5Y2X5biC6auY5paw5Yy66Iic5Y2O6LevMzU55Y+36IGU5ZCI6LSi5a+M5bm/5Zy6MeWPt+alvDIwMDXlrqQgMTc0NzAw5YWDIA0K44CA44CA5LiD44CB6YeH6LSt5bCP57uE5oiQ5ZGY5ZCN5Y2V77yaMeWMhe+8muadqOWFteOAgeadjuW7uuadsOOAgeeOi+a1t+OAgeeOi+e7tOaBreOAgeWImOePiQ0K44CA44CA5YWr44CB6YeH6LSt5bCP57uE5oiQ5ZGY6K+E5a6h57uT5p6c77yI56ue5LqJ5oCn56OL5ZWG5pa55byP77yJ77yaDQrjgIDjgIDkuZ3jgIHogZTns7vmlrnlvI8NCuOAgOOAgDEu6YeH6LSt5Lq677ya5bGx5Lic5aSW6LS46IGM5Lia5a2m6ZmiDQrjgIDjgIDlnLDlnYDvvJrpnZLlspvluILmnY7msqfljLrlt6jls7Dot68yMDHlj7co5bGx5Lic5aSW6LS46IGM5Lia5a2m6ZmiKQ0K44CA44CA6IGU57O75Lq677ya6IOh6ICB5biIKOWxseS4nOWklui0uOiBjOS4muWtpumZoikNCuOAgOOAgOiBlOezu+aWueW8j++8mjA1MzItNTU3NjEyNjco5bGx5Lic5aSW6LS46IGM5Lia5a2m6ZmiKQ0K44CA44CAMi7ku6PnkIbmnLrmnoTvvJrlsbHkuJznm5vlkozmi5vmoIfku6PnkIbmnInpmZDlhazlj7gNCuOAgOOAgOWcsOWdgO+8muWxseS4nOecge+8iOiHquayu+WMuuOAgeebtOi+luW4gu+8iemdkuWym+W4gu+8iOW3nu+8ieW4guWMl+WMuuWOv++8iOWMuuOAgeW4gu+8ieaVpuWMlui3r+ihl+mBk++8iOi3r+OAgeS5oeOAgemVh++8iTEzOOWPt+WPt++8iOadke+8ieilv+eOi+Wkp+WOpjIzQTAx5a6kDQrjgIDjgIDogZTns7vkurrvvJrkvq/nvo7njrINCuOAgOOAgOiBlOezu+aWueW8j++8mjA1MzItODU2NTk5MTg=</t>
-  </si>
-  <si>
     <t>GBK</t>
+  </si>
+  <si>
+    <t>　　厦门市华沧采购招标有限公司受北京师范大学厦门海沧附属学校委托，根据《中华人民共和国政府采购法》等有关规定，现对体育中心校区户外阅读环境文化建设进行竞争性谈判招标，欢迎合格的供应商前来投标。_x000D_
+　　_x000D_
+　　项目名称：体育中心校区户外阅读环境文化建设_x000D_
+　　项目编号：2016-HCJZ-SH657_x000D_
+　　项目联系方式：_x000D_
+　　项目联系人：林小姐_x000D_
+　　项目联系电话：0592-6581200_x000D_
+　　_x000D_
+　　采购单位联系方式：_x000D_
+　　采购单位：北京师范大学厦门海沧附属学校_x000D_
+　　地址：/_x000D_
+　　联系方式：/_x000D_
+　　_x000D_
+　　代理机构联系方式：_x000D_
+　　代理机构：厦门市华沧采购招标有限公司_x000D_
+　　代理机构联系人：林小姐  0592-6581200_x000D_
+　　代理机构地址： 厦门市海沧区沧虹路95号工商银行八楼_x000D_
+　　_x000D_
+　　一、供应商资格要求简要说明:_x000D_
+　　资格标准：1、谈判响应供应商应在中华人民共和国合法注册，具有独立承担民事责任的能力，必须提供法人营业执照有效复印件，已执行三证合一，按新政策执行。2、谈判响应供应商代表应提供身份证有效复印件（正反面均需复印），谈判响应供应商代表若不是企业法定代表人的应同时提供企业法定代表人的授权书原件。3、谈判响应供应商须具有建设行政主管部门颁发的城市园林绿化叁级或以上资质证书。4、参加采购活动前3年内在经营活动中没有重大违法记录的书面声明原件。5、本项目拒绝联合体投标。其他详见采购文件。_x000D_
+　　_x000D_
+　　二、获取谈判文件时间及地点:_x000D_
+　　获取谈判文件的时间：2016年07月29日 18:40 至 2016年08月03日 17:30(双休日及法定节假日除外)_x000D_
+　　_x000D_
+　　获取谈判文件地点： 厦门市海沧区沧虹路95号工商银行八楼_x000D_
+　　_x000D_
+　　三、其它补充事宜：_x000D_
+　　开户名：厦门市华沧采购招标有限公司_x000D_
+　　开户行：厦门银行银隆支行_x000D_
+　　账  号：8751020109007675_x000D_
+　　保证金联系人及联系方式：叶小姐  0592-5333806/5333807（传真）_x000D_
+　　_x000D_
+　　四、项目联系方式：_x000D_
+　　项目联系人：林小姐_x000D_
+　　项目联系电话：0592-6581200_x000D_
+　　_x000D_
+　　五、谈判方式文件及售价等：_x000D_
+　　预算金额：45.0 万元（人民币）_x000D_
+　　获取谈判文件方式:现场购买或邮寄购买（EMS费：人民币50元），节假日除外。_x000D_
+　　获取谈判文件文件售价：100.0 元_x000D_
+　　谈判文件发售起、止时间：2016年07月29日 18:39 至 2016年08月03日 17:30(双休日及法定节假日除外)_x000D_
+　　谈判时间：2016年08月04日 14:00_x000D_
+　　谈判响应文件递交截止时间：2016年08月04日 14:00_x000D_
+　　谈判响应文件递交地点:厦门市海沧区沧虹路95号工商银行八楼_x000D_
+　　谈判响应文件开启时间：2016年08月04日 14:00_x000D_
+　　谈判响应文件开启地点:厦门市海沧区沧虹路95号工商银行八楼厦门市华沧采购招标有限公司评标室_x000D_
+　　_x000D_
+　　六、采购项目需要落实的政府采购政策：_x000D_
+　　/_x000D_
+　　_x000D_
+　　七、采购项目的名称、数量、简要规格描述或项目基本概况介绍：_x000D_
+　　体育中心校区户外阅读环境文化建设， 1项 ，具体内容详见采购文件。_x000D_
+　　_x000D_
+　　</t>
   </si>
 </sst>
 </file>
@@ -671,36 +697,774 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1.03003E+19</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5.88027E+17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43084.512499999997</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43083</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43083.700694444444</v>
+      </c>
+      <c r="O2" s="1">
+        <v>43084.512499999997</v>
+      </c>
+      <c r="V2" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>781</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2">
+        <v>9688</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1.00031E+19</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.53414E+19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="1">
+        <v>43084.412499999999</v>
+      </c>
+      <c r="M3" s="2">
+        <v>43084</v>
+      </c>
+      <c r="N3" s="1">
+        <v>43084.409722222219</v>
+      </c>
+      <c r="O3" s="1">
+        <v>43084.413888888892</v>
+      </c>
+      <c r="V3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1.57342E+18</v>
+      </c>
+      <c r="Y3">
+        <v>82</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>7908</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>5</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN3">
+        <v>130709</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1.00301E+19</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.32736E+19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1">
+        <v>43098.609722222223</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43098</v>
+      </c>
+      <c r="N4" s="1">
+        <v>43098.492361111108</v>
+      </c>
+      <c r="O4" s="1">
+        <v>43098.609722222223</v>
+      </c>
+      <c r="V4" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" t="s">
+        <v>76</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>792</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4">
+        <v>38707</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1.00501E+19</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.64955E+19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="1">
+        <v>43089.522916666669</v>
+      </c>
+      <c r="M5" s="2">
+        <v>43088</v>
+      </c>
+      <c r="N5" s="1">
+        <v>43088.744444444441</v>
+      </c>
+      <c r="O5" s="1">
+        <v>43089.522916666669</v>
+      </c>
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1.68966E+19</v>
+      </c>
+      <c r="Y5">
+        <v>82</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>699</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>5</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN5">
+        <v>14648</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1.00061E+19</v>
+      </c>
+      <c r="B6">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.70731E+19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="1">
+        <v>43072.213194444441</v>
+      </c>
+      <c r="M6" s="2">
+        <v>43067</v>
+      </c>
+      <c r="N6" s="1">
+        <v>43067.84097222222</v>
+      </c>
+      <c r="O6" s="1">
+        <v>43072.213888888888</v>
+      </c>
+      <c r="S6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="4">
+        <v>9.51549E+18</v>
+      </c>
+      <c r="Y6">
+        <v>98</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1067</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN6">
+        <v>17621</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="137.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="203.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="174.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="76.44140625" customWidth="1"/>
+    <col min="12" max="12" width="75.88671875" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
     <col min="14" max="14" width="18.33203125" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="54.21875" customWidth="1"/>
-    <col min="17" max="17" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
     <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="133.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="82.109375" customWidth="1"/>
     <col min="24" max="24" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -950,10 +1714,10 @@
         <v>781</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AE2" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -974,16 +1738,19 @@
         <v>5</v>
       </c>
       <c r="AL2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" t="s">
         <v>64</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>66</v>
       </c>
       <c r="AO2">
         <v>9688</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>91</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1006,25 +1773,25 @@
         <v>1.5341356977593E+19</v>
       </c>
       <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>70</v>
       </c>
       <c r="J3" t="s">
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1">
         <v>43084.412997685184</v>
@@ -1039,10 +1806,10 @@
         <v>43084.414340277777</v>
       </c>
       <c r="W3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Y3">
         <v>1.5734223502856801E+18</v>
@@ -1060,10 +1827,10 @@
         <v>7908</v>
       </c>
       <c r="AD3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AE3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1084,16 +1851,19 @@
         <v>5</v>
       </c>
       <c r="AL3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" t="s">
         <v>64</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>66</v>
       </c>
       <c r="AO3">
         <v>130709</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>91</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -1113,7 +1883,7 @@
         <v>1.32735910868025E+19</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
         <v>55</v>
@@ -1128,10 +1898,10 @@
         <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M4" s="1">
         <v>43098.610150462962</v>
@@ -1146,10 +1916,10 @@
         <v>43098.610266203701</v>
       </c>
       <c r="W4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1167,10 +1937,10 @@
         <v>792</v>
       </c>
       <c r="AD4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AE4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1191,16 +1961,19 @@
         <v>5</v>
       </c>
       <c r="AL4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN4" t="s">
         <v>64</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>66</v>
       </c>
       <c r="AO4">
         <v>38707</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>91</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1223,7 +1996,7 @@
         <v>1.64954621065263E+19</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
         <v>55</v>
@@ -1232,16 +2005,16 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
         <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M5" s="1">
         <v>43089.523414351854</v>
@@ -1256,10 +2029,10 @@
         <v>43089.523541666669</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Y5">
         <v>1.68965702751197E+19</v>
@@ -1277,10 +2050,10 @@
         <v>699</v>
       </c>
       <c r="AD5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AE5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1301,16 +2074,19 @@
         <v>5</v>
       </c>
       <c r="AL5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN5" t="s">
         <v>64</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>66</v>
       </c>
       <c r="AO5">
         <v>14648</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>91</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1333,25 +2109,25 @@
         <v>1.70731052136872E+19</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M6" s="1">
         <v>43072.213761574072</v>
@@ -1366,16 +2142,16 @@
         <v>43072.214363425926</v>
       </c>
       <c r="T6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Y6">
         <v>9.5154889947954606E+18</v>
@@ -1393,10 +2169,10 @@
         <v>1067</v>
       </c>
       <c r="AD6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AE6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1417,740 +2193,24 @@
         <v>5</v>
       </c>
       <c r="AL6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AM6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AN6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO6">
         <v>17621</v>
       </c>
+      <c r="AP6" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ6">
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1.03003E+19</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>5.88027E+17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="1">
-        <v>43084.512499999997</v>
-      </c>
-      <c r="M2" s="2">
-        <v>43083</v>
-      </c>
-      <c r="N2" s="1">
-        <v>43083.700694444444</v>
-      </c>
-      <c r="O2" s="1">
-        <v>43084.512499999997</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>781</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>5</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN2">
-        <v>9688</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1.00031E+19</v>
-      </c>
-      <c r="B3">
-        <v>57</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1.53414E+19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="1">
-        <v>43084.412499999999</v>
-      </c>
-      <c r="M3" s="2">
-        <v>43084</v>
-      </c>
-      <c r="N3" s="1">
-        <v>43084.409722222219</v>
-      </c>
-      <c r="O3" s="1">
-        <v>43084.413888888892</v>
-      </c>
-      <c r="V3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="4">
-        <v>1.57342E+18</v>
-      </c>
-      <c r="Y3">
-        <v>82</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>7908</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>5</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN3">
-        <v>130709</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1.00301E+19</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.32736E+19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="1">
-        <v>43098.609722222223</v>
-      </c>
-      <c r="M4" s="2">
-        <v>43098</v>
-      </c>
-      <c r="N4" s="1">
-        <v>43098.492361111108</v>
-      </c>
-      <c r="O4" s="1">
-        <v>43098.609722222223</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>792</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>5</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN4">
-        <v>38707</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1.00501E+19</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.64955E+19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="1">
-        <v>43089.522916666669</v>
-      </c>
-      <c r="M5" s="2">
-        <v>43088</v>
-      </c>
-      <c r="N5" s="1">
-        <v>43088.744444444441</v>
-      </c>
-      <c r="O5" s="1">
-        <v>43089.522916666669</v>
-      </c>
-      <c r="V5" t="s">
-        <v>86</v>
-      </c>
-      <c r="W5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X5" s="4">
-        <v>1.68966E+19</v>
-      </c>
-      <c r="Y5">
-        <v>82</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>699</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>5</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AN5">
-        <v>14648</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1.00061E+19</v>
-      </c>
-      <c r="B6">
-        <v>157</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.70731E+19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" s="1">
-        <v>43072.213194444441</v>
-      </c>
-      <c r="M6" s="2">
-        <v>43067</v>
-      </c>
-      <c r="N6" s="1">
-        <v>43067.84097222222</v>
-      </c>
-      <c r="O6" s="1">
-        <v>43072.213888888888</v>
-      </c>
-      <c r="S6" t="s">
-        <v>95</v>
-      </c>
-      <c r="T6" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W6" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" s="4">
-        <v>9.51549E+18</v>
-      </c>
-      <c r="Y6">
-        <v>98</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>1067</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>5</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN6">
-        <v>17621</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
         <v>0</v>
       </c>
     </row>
